--- a/NoInitialDeath/AerobicNID/EfaecalisAero.xlsx
+++ b/NoInitialDeath/AerobicNID/EfaecalisAero.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fa296b65799f4cf3/Growth-Curves/CF-Growth-Curves/Aerobic Growth/FullData/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fa296b65799f4cf3/Growth-Curves/CF-Growth-Curves/NoInitialDeath/AerobicNID/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{F1D92EAF-CC76-4947-905F-087170269492}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FA8692F2-EB59-0647-93F0-5D5F6250AE28}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="8_{F1D92EAF-CC76-4947-905F-087170269492}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1FE346C2-6C7B-FC48-8E43-1030A32465CB}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="15600" xr2:uid="{624568A2-BF2A-234E-A27C-ABB1342E5E8E}"/>
   </bookViews>
@@ -85,8 +85,12 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -374,7 +378,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -384,8 +388,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D845305A-156A-6A46-8C04-9E9878368FD1}">
   <dimension ref="A1:B145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A135" workbookViewId="0">
-      <selection activeCell="I156" sqref="I156"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
